--- a/biology/Zoologie/Poule_de_Choumen/Poule_de_Choumen.xlsx
+++ b/biology/Zoologie/Poule_de_Choumen/Poule_de_Choumen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La poule de Choumen ou noire de Choumen est une race de poule domestique d'origine bulgare de la province de Choumen. C'est une race fort ancienne qui a été améliorée au XXe siècle par le croisement de poule de Minorque et de poule de Rhode Island.
-Comme son nom l'indique, son plumage existe uniquement en noir. La poule pond entre 150 et 160 œufs par an à la coquille blanche de 50 à 52 g en moyenne. La chair de la noire de Choumen est blanche, ses oreillons rouges. Elle est légère, le coq ne devant pas excéder les 2 kg et la poule 1,5 kg. Le centre d'hybridation de l'institut avicole de Stara Zagora s'occupe du suivi scientifique de cette race[1].
+Comme son nom l'indique, son plumage existe uniquement en noir. La poule pond entre 150 et 160 œufs par an à la coquille blanche de 50 à 52 g en moyenne. La chair de la noire de Choumen est blanche, ses oreillons rouges. Elle est légère, le coq ne devant pas excéder les 2 kg et la poule 1,5 kg. Le centre d'hybridation de l'institut avicole de Stara Zagora s'occupe du suivi scientifique de cette race.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) « Bulgarian Poultry breeds: Black Shumen hen. », 2011 (consulté le 13 juillet 2011)
@@ -545,7 +559,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(bg + en) Site à propos des races animales bulgares
  Portail de la Bulgarie   Portail de l'ornithologie   Portail de l’élevage   Portail de l’agriculture et l’agronomie                  </t>
